--- a/biology/Botanique/Iris_orientalis/Iris_orientalis.xlsx
+++ b/biology/Botanique/Iris_orientalis/Iris_orientalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Iris turc ou Iris des steppes (Iris orientalis) est une espèce de plantes à fleurs de la famille des iridacées. C'est une plante herbacée vivace originaire de Turquie et de Grèce.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle dispose d'un rhizome stolonifère verdâtre.
 La floraison, d'assez courte durée, a lieu courant mai sur des tiges allant jusqu'à 1,20 m. La fleur bicolore, jaune et blanc, comporte trois grands sépales sans crête et trois pétales de plus petite taille.
@@ -543,7 +557,9 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En 2005, Gueorgi Ivanovitch Rodionenko l'a replacée dans le genre Xyridion (Tausch) Fourr. :
 Xyridion orientalis (Mill.) Rodion.
@@ -551,7 +567,7 @@
 Des variétés botaniques et horticoles sont recensées, parmi lesquelles :
 Iris orientalis 'Gigantea'
 Iris orientalis var. monnieri
-Enfin, des synonymes sont signalés par le site Signa (mais sans confirmation par d'autres index)[1] :
+Enfin, des synonymes sont signalés par le site Signa (mais sans confirmation par d'autres index) :
 Iris albida Davidov
 Iris ochroleuca L.
 Iris spuria subsp. ochroleuca</t>
@@ -582,7 +598,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce d'iris est originaire du nord-est de la Grèce et du nord-ouest, du sud et du centre de la Turquie. Elle pousse près des bords de rivières et des endroits marécageux, ainsi que des prés humides.
 Elle est assez répandue en culture horticole depuis la fin du XVIIIe siècle et de nombreuses pépinières la commercialisent.
